--- a/doc/Requirements.xlsx
+++ b/doc/Requirements.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Functions" sheetId="1" r:id="rId1"/>
-    <sheet name="Bugs" sheetId="2" r:id="rId2"/>
-    <sheet name="Tests" sheetId="3" r:id="rId3"/>
+    <sheet name="Functions rest" sheetId="1" r:id="rId1"/>
+    <sheet name="Functions web" sheetId="4" r:id="rId2"/>
+    <sheet name="Bugs" sheetId="2" r:id="rId3"/>
+    <sheet name="Tests" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="76">
   <si>
     <t>* everything that is not on the current tage is in not now
 * if something is not avalible in this column its not needed</t>
@@ -44,12 +45,6 @@
     <t>For</t>
   </si>
   <si>
-    <t>Bandlogo</t>
-  </si>
-  <si>
-    <t>upload a bandlogo</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
@@ -189,6 +184,69 @@
   </si>
   <si>
     <t>DE</t>
+  </si>
+  <si>
+    <t>CashMaster tests</t>
+  </si>
+  <si>
+    <t>CashMaster bugs</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system has to </t>
+  </si>
+  <si>
+    <t>The system must be capable of sending all account names and current balances</t>
+  </si>
+  <si>
+    <t>The system must be capable of sending specific account name and current balance based of account id</t>
+  </si>
+  <si>
+    <t>The system has to create startup accounts and categories</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Urgency</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>The system has to be capable of register user with a user name and password</t>
+  </si>
+  <si>
+    <t>The system has to be capable of login user with a user name and password</t>
+  </si>
+  <si>
+    <t>Account service get all</t>
+  </si>
+  <si>
+    <t>Account service get</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system must be capable of sending all category names </t>
+  </si>
+  <si>
+    <t>Category service get all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system must be capable of sending a specific category name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category service get </t>
+  </si>
+  <si>
+    <t>Authentication register</t>
+  </si>
+  <si>
+    <t>Authentication login</t>
+  </si>
+  <si>
+    <t>Bootstrap create startup entities</t>
   </si>
 </sst>
 </file>
@@ -228,7 +286,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +338,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -393,15 +463,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -429,6 +490,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,17 +813,1410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:M25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="52.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="40.28515625" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="24">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24">
+        <v>5</v>
+      </c>
+      <c r="E3" s="24">
+        <v>1</v>
+      </c>
+      <c r="F3" s="24">
+        <f>D3*E3</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24">
+        <v>5</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
+        <f t="shared" ref="F4:F25" si="0">D4*E4</f>
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24">
+        <v>5</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="25">
+        <v>2</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="25">
+        <v>2</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24">
+        <v>5</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="24">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24">
+        <v>5</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24">
+        <f t="shared" ref="F9" si="1">D9*E9</f>
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="24">
+        <v>1</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="24">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="24">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="24">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="24">
+        <v>1</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="24">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="24">
+        <v>2</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="24">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="24">
+        <v>3</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="24">
+        <f>D26*E26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="19"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="19"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="19"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="19"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="19"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="19"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:F26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
@@ -754,20 +2226,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
+      <c r="A1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
@@ -778,19 +2250,19 @@
     </row>
     <row r="2" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -799,7 +2271,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>5</v>
@@ -818,32 +2290,32 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -853,32 +2325,32 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -888,32 +2360,32 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -923,67 +2395,67 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -993,32 +2465,32 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1028,32 +2500,32 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1063,30 +2535,30 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1096,30 +2568,30 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1129,30 +2601,30 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1162,30 +2634,30 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1195,30 +2667,30 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1228,102 +2700,102 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1333,32 +2805,32 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1368,67 +2840,67 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -1438,30 +2910,30 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -1471,102 +2943,102 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1576,352 +3048,351 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="9">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="22"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="19"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="22"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="22"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="22"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="22"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="19"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="19"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="22"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="19"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="19"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="22"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="19"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="22"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="19"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,20 +3407,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
+      <c r="A1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
@@ -1960,19 +3431,19 @@
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -1981,7 +3452,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>5</v>
@@ -2348,12 +3819,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,20 +3839,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
+      <c r="A1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
@@ -2392,19 +3863,19 @@
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -2413,7 +3884,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>5</v>
